--- a/pred_ohlcv/54_21/2019-11-01 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 FX ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-87499.65750793651</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 FX ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-112568.3173079365</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-94840.72260793651</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-95271.16720793651</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-102361.0226079365</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-102848.2028079365</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-102846.2028079365</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-105244.8903079365</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-105168.7237079365</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
